--- a/biology/Botanique/Araucariales/Araucariales.xlsx
+++ b/biology/Botanique/Araucariales/Araucariales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Araucariales sont un ordre de plantes gymnospermes de la sous-classe des Pinidae.
 </t>
@@ -511,23 +523,25 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon la World Flora Online (WFO)       (8 août 2023)[1], l'INPN      (8 août 2023)[2], The Taxonomicon  (8 août 2023)[3] et le World Register of Marine Species                               (8 août 2023)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon la World Flora Online (WFO)       (8 août 2023), l'INPN      (8 août 2023), The Taxonomicon  (8 août 2023) et le World Register of Marine Species                               (8 août 2023) :
 Araucariaceae Henkel &amp; W.Hochst., 1865 nom. cons.
 Podocarpaceae Endl., 1847 nom. cons.
-Selon Tropicos                                           (8 août 2023)[5] :
+Selon Tropicos                                           (8 août 2023) :
 Agathidaceae Baum.-Bod. ex A.V. Bobrov &amp; Melikyan, 2006
 Araucariaceae Henkel &amp; W. Hochst., 1865
 Bracteocarpaceae Melikyan &amp; A.V. Bobrov, 2000
 Dammaraceae Link, 1830
 Lepidothamnaceae Melikyan &amp; A.V. Bobrov, 2000
 Phyllocladaceae Core ex H. Keng, 1973
-Selon l'IRMNG  (8 août 2023)[6] :
+Selon l'IRMNG  (8 août 2023) :
 Araucariaceae Henkel &amp; W. Hochstetter, 1865
 †Cheirolepidiaceae Takhtajan ex Turutanova-Ketova, 1963
 Podocarpaceae Endlicher, 1847
-Selon The International Fossil Plant Names Index (IFPNI)                (8 août 2023)[7] :
+Selon The International Fossil Plant Names Index (IFPNI)                (8 août 2023) :
 Araucariaceae
 †Brachyphyllaceae
 famille Incertae sedis :
@@ -567,9 +581,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon la World Flora Online (WFO)       (8 août 2023)[1], Araucariales Gorozh. a pour synonymes :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon la World Flora Online (WFO)       (8 août 2023), Araucariales Gorozh. a pour synonymes :
 Falcatifoliales Melikyan &amp; A.V. Bobrov
 Parasitaxales Melikyan &amp; A.V. Bobrov
 Podocarpales Pulle ex Reveal
@@ -601,9 +617,11 @@
           <t>Position phylogénétique au sein des Gymnospermes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phylogénie des Acrogymnospermae[8],[9]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phylogénie des Acrogymnospermae,
 </t>
         </is>
       </c>
